--- a/ig/sd-correction-CS-regulation-code/ValueSet-eclaire-regulation-code-vs.xlsx
+++ b/ig/sd-correction-CS-regulation-code/ValueSet-eclaire-regulation-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T09:16:01+00:00</t>
+    <t>2023-10-17T09:21:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
